--- a/data/trans_dic/IP28_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP28_R-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,51%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,74</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,93</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,2</t>
+          <t>0,3; 2,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,78</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,76</t>
+          <t>0,0; 2,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,53</t>
+          <t>0,33; 3,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,9</t>
+          <t>0,0; 2,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,45</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,98</t>
+          <t>0,34; 2,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,89</t>
+          <t>0,33; 1,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,57</t>
+          <t>0,46; 2,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,99</t>
+          <t>0,15; 1,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,62</t>
+          <t>0,95; 3,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>1,5; 4,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,91</t>
+          <t>0,57; 3,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,6; 2,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>0,97; 3,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,0</t>
+          <t>2,13; 6,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,65</t>
+          <t>0,47; 2,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>1,21; 4,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,02</t>
+          <t>1,09; 2,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,92</t>
+          <t>2,22; 4,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,16</t>
+          <t>0,78; 2,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,36</t>
+          <t>1,16; 2,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP28_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP28_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -676,42 +676,42 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>0,0; 2,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,31</t>
+          <t>0,49; 4,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>0; 1,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0; 1,65</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,17</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,86</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,98</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,74</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,95</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 2,9</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,52</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>0; 0,85</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 3,39</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,45</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,28</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,79</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 1,8</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 2,07</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,13</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,62</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,91</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 2,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>0,32; 3,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,0</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,65</t>
+          <t>0,3; 2,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>0,0; 0,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,02</t>
+          <t>0,36; 1,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,92</t>
+          <t>0,16; 1,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,16</t>
+          <t>0,15; 1,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,36</t>
+          <t>0,05; 1,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,57%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,74</t>
+          <t>0,48; 4,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,93</t>
+          <t>0,44; 4,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,2</t>
+          <t>0,38; 3,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,78</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,76</t>
+          <t>0,51; 4,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,53</t>
+          <t>1,36; 6,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,9</t>
+          <t>0,8; 4,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,45</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,98</t>
+          <t>0,73; 3,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,89</t>
+          <t>1,2; 4,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,57</t>
+          <t>0,79; 3,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,99</t>
+          <t>0,17; 1,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,99</t>
+          <t>0,96; 5,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,63</t>
+          <t>1,45; 6,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,73</t>
+          <t>0,83; 4,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,78</t>
+          <t>0,6; 3,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,17</t>
+          <t>0,65; 3,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,03</t>
+          <t>1,91; 7,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,81</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,59</t>
+          <t>1,81; 6,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,81</t>
+          <t>1,13; 3,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,59</t>
+          <t>2,1; 5,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,55</t>
+          <t>0,63; 2,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,85</t>
+          <t>1,36; 3,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 2,01</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 2,59</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 1,78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 1,77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 2,21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 3,2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 1,79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 2,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 1,8</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 2,5</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 1,51</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 1,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP28_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP28_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,4</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,26</t>
+          <t>0,49; 4,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,17</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,86</t>
+          <t>0,0; 3,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,9</t>
+          <t>0,51; 2,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 1,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,07</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,51</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,92</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,06</t>
+          <t>0,31; 3,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,52</t>
+          <t>0,3; 2,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,5</t>
+          <t>0,0; 0,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,76</t>
+          <t>0,31; 1,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,62</t>
+          <t>0,16; 1,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,46</t>
+          <t>0,15; 1,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,41</t>
+          <t>0,05; 1,46</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,5</t>
+          <t>0,48; 4,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,76</t>
+          <t>0,45; 4,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,89</t>
+          <t>0,39; 3,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,0; 2,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,93</t>
+          <t>0,51; 5,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,39</t>
+          <t>1,32; 6,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,56</t>
+          <t>0,78; 4,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,26</t>
+          <t>0,52; 3,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,28</t>
+          <t>1,34; 4,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,1</t>
+          <t>0,87; 3,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,62</t>
+          <t>0,17; 1,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,07</t>
+          <t>0,97; 4,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,13</t>
+          <t>1,45; 6,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,57</t>
+          <t>0,81; 4,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,14</t>
+          <t>0,61; 3,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,68</t>
+          <t>0,65; 3,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,4</t>
+          <t>1,76; 7,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,52</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,19</t>
+          <t>1,74; 6,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,36</t>
+          <t>1,05; 3,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,56</t>
+          <t>2,15; 5,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,77</t>
+          <t>0,67; 2,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,81</t>
+          <t>1,44; 3,95</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,01</t>
+          <t>0,66; 2,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,59</t>
+          <t>0,97; 2,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,78</t>
+          <t>0,5; 1,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,77</t>
+          <t>0,51; 1,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,21</t>
+          <t>0,73; 2,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,2</t>
+          <t>1,24; 3,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,79</t>
+          <t>0,55; 1,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,53</t>
+          <t>0,82; 2,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,8</t>
+          <t>0,81; 1,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,5</t>
+          <t>1,26; 2,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,51</t>
+          <t>0,63; 1,49</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,89</t>
+          <t>0,8; 1,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP28_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP28_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,32 +656,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,53%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>1,52%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,58%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -724,52 +724,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,06</t>
+          <t>0,0; 3,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0; 0,98</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,74</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,65</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 4,03</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,1</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0; 1,65</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,9</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,82</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,98</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,74</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,84</t>
+          <t>0,51; 2,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,54%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,6%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,3%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,77%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,36%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,43%</t>
         </is>
       </c>
     </row>
@@ -864,47 +864,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
+          <t>0,31; 3,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,3; 2,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,44</t>
+          <t>0,0; 0,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,23</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,62</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,49</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,89</t>
+          <t>0,34; 1,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,53</t>
+          <t>0,16; 1,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,46</t>
+          <t>0,05; 1,44</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>1,49%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>1,8%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>1,54%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,04%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,62%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,0</t>
+          <t>0,51; 4,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,3</t>
+          <t>1,41; 6,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,53</t>
+          <t>0,46; 4,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,61</t>
+          <t>0,0; 2,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,17</t>
+          <t>0,48; 4,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,14</t>
+          <t>0,49; 4,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,73</t>
+          <t>0,39; 3,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,33</t>
+          <t>0,52; 3,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,28</t>
+          <t>1,37; 4,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,3</t>
+          <t>0,83; 3,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,56</t>
+          <t>0,19; 1,68</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>2,3%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>3,17%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>2,12%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,67%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,88%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,77%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,32</t>
+          <t>0,66; 3,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,32</t>
+          <t>1,7; 7,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,75</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,21</t>
+          <t>1,49; 5,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,66</t>
+          <t>0,94; 4,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,59</t>
+          <t>1,51; 6,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,36</t>
+          <t>0,83; 4,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,0</t>
+          <t>0,51; 3,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,32</t>
+          <t>1,02; 3,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,44</t>
+          <t>2,06; 5,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,81</t>
+          <t>0,6; 2,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,95</t>
+          <t>1,29; 3,71</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>1,23%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>1,66%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>1,0%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,02</t>
+          <t>0,69; 2,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,57</t>
+          <t>1,16; 3,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,77</t>
+          <t>0,49; 1,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,77</t>
+          <t>0,72; 2,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,2</t>
+          <t>0,65; 1,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,22</t>
+          <t>0,97; 2,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,82</t>
+          <t>0,58; 1,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,58</t>
+          <t>0,51; 1,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,8</t>
+          <t>0,83; 1,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,48</t>
+          <t>1,34; 2,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,49</t>
+          <t>0,62; 1,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,83</t>
+          <t>0,75; 1,78</t>
         </is>
       </c>
     </row>
